--- a/Specifikacije projekta/02 SRS Tabela.xlsx
+++ b/Specifikacije projekta/02 SRS Tabela.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\02 Doktorat\UNZE\2024-2025\01 Razvoj mobilnih aplikacija - III godina\1 Projektni zadatak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\priv\MusicStreamingService\Specifikacije projekta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AA2A8C-E9E5-42C0-9BE1-28B246D85D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3F0AA9-FA70-4DD6-B7A5-4AC174898729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,8 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>Univerzitet u Zenici</t>
   </si>
@@ -97,115 +95,10 @@
     <t>Splash screen</t>
   </si>
   <si>
-    <t>Animirani logo kompanije</t>
-  </si>
-  <si>
-    <t>F1.1.0.</t>
-  </si>
-  <si>
-    <t>Caruse Info</t>
-  </si>
-  <si>
-    <t>Carusel stranica sa prikazom grafike, naslova i opisnog teksta, ozanak pozicije slajdera</t>
-  </si>
-  <si>
-    <t>F.1.1.1.</t>
-  </si>
-  <si>
-    <t>Poruka 1</t>
-  </si>
-  <si>
-    <t>F.1.1.2.</t>
-  </si>
-  <si>
-    <t>Poruka 2</t>
-  </si>
-  <si>
-    <t>Poruka 3</t>
-  </si>
-  <si>
     <t>F.2.0.0.</t>
   </si>
   <si>
-    <t>Login forma</t>
-  </si>
-  <si>
-    <t>Login forma treba da sadži Logo, Text box za username i password, login dugme, poveznice za registraciju i zaboravljenu šifru.</t>
-  </si>
-  <si>
-    <t>F.2.0.1.</t>
-  </si>
-  <si>
-    <t>Username, Validacija podataka</t>
-  </si>
-  <si>
-    <t>username mora bit email, u slučaju pogrešnog unosa - obojiti crvenom bojom pozadinu text box-a.</t>
-  </si>
-  <si>
-    <t>Password, Validacija podataka</t>
-  </si>
-  <si>
-    <t>password po defaultu mora imati više od 8 karaktera, u slučaju pogrešnog unosa -  obojiti crvenom bojom pozadinu text box-a.</t>
-  </si>
-  <si>
-    <t>Password, pogledaj unos</t>
-  </si>
-  <si>
-    <t>Unos passworda je zaštićen zvjezdicama-tačkicama, Kreirati dugme koje će omogučiti prikaz unesenih podatka u palin text...</t>
-  </si>
-  <si>
-    <t>Pop up poruka o pogrešnom username/pass! Resetovati textbox ili sačuvati unesene podatke!</t>
-  </si>
-  <si>
-    <t>F.2.1.0.</t>
-  </si>
-  <si>
-    <t>Register forma</t>
-  </si>
-  <si>
     <t>NE-FUNKCIONALNE SPECIFIKACIJE</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>Theming</t>
-  </si>
-  <si>
-    <t>Omogućiti Light i Dark temu</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>Accessibility</t>
-  </si>
-  <si>
-    <t>Omogućiti povećanje fonta - Slabovidne osobe</t>
-  </si>
-  <si>
-    <t>Omogućiti Themu sa JAKIM KONTRAStom (pozadina crna - tekst žuta)</t>
-  </si>
-  <si>
-    <t>Prilagoditi dizajn za maloljetnu djecu uzrasta od 10-14 godina</t>
-  </si>
-  <si>
-    <t>Kako će to uticati na funkcionalnosti UI?</t>
-  </si>
-  <si>
-    <t>N3</t>
-  </si>
-  <si>
-    <t>Animacije</t>
-  </si>
-  <si>
-    <t>Animirati okvir aktivnih dugmadi</t>
-  </si>
-  <si>
-    <t>N4</t>
-  </si>
-  <si>
-    <t>Lazy loading animacija na fotografijama i listam</t>
   </si>
   <si>
     <t>Razvoj mobilnih aplikacija</t>
@@ -218,15 +111,6 @@
   </si>
   <si>
     <t>Jezik UI interfejsa:</t>
-  </si>
-  <si>
-    <t>1. Ime Prezime</t>
-  </si>
-  <si>
-    <t>2. Ime Prezime</t>
-  </si>
-  <si>
-    <t>Naslov teme</t>
   </si>
   <si>
     <t>Analiza tržišta</t>
@@ -300,12 +184,6 @@
     <t>1 nivo - Generalni View aplikacije (Icon, Splash, Wellcom Page, Carusel info, About app,....)</t>
   </si>
   <si>
-    <t>Validacija pogrešne autentifikacije</t>
-  </si>
-  <si>
-    <t>Performanse povlačenja velike količine podataka</t>
-  </si>
-  <si>
     <t>NAPOMENE:</t>
   </si>
   <si>
@@ -342,12 +220,81 @@
   <si>
     <t>Funkcionalnosti/Kompleksnost:</t>
   </si>
+  <si>
+    <t>1. Safet Imamović</t>
+  </si>
+  <si>
+    <t>2. Hamza Gačić</t>
+  </si>
+  <si>
+    <t>Music Streaming Service</t>
+  </si>
+  <si>
+    <t>Logo Aplikacije</t>
+  </si>
+  <si>
+    <t>Vrši Registraciju i Prijavu</t>
+  </si>
+  <si>
+    <t>Omogućava korisnicima da kreiraju nalog ili se prijave na postojeći putem emaila i lozinke.</t>
+  </si>
+  <si>
+    <t>Sluša Muziku (Streaming Muzike)</t>
+  </si>
+  <si>
+    <t>Vrši Interakciju sa Muzikom</t>
+  </si>
+  <si>
+    <t>Upravljanje Postavljenom Muzikom</t>
+  </si>
+  <si>
+    <t>Upravljanje Postavljenom Playlistom</t>
+  </si>
+  <si>
+    <t>Upravljanje Postavljenim Albumom</t>
+  </si>
+  <si>
+    <t>Pregled Albuma</t>
+  </si>
+  <si>
+    <t>Pregled Playliste</t>
+  </si>
+  <si>
+    <t>Pregled Izvođača</t>
+  </si>
+  <si>
+    <t>Kreiranje Playliste</t>
+  </si>
+  <si>
+    <t>Kreiranje Albuma</t>
+  </si>
+  <si>
+    <t>Pretraga Muzike</t>
+  </si>
+  <si>
+    <t>Offline Muzika</t>
+  </si>
+  <si>
+    <t>Kreiranje Muzike</t>
+  </si>
+  <si>
+    <t>Lajkovanje Muzike</t>
+  </si>
+  <si>
+    <t>Pregled Lajkovane Muzike</t>
+  </si>
+  <si>
+    <t>Pregled Zapraćeni Izvođača</t>
+  </si>
+  <si>
+    <t>Zapraćivanje Izvođača</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -430,8 +377,14 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,18 +413,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFB6D7A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
-        <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
     <fill>
@@ -526,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -546,9 +487,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -561,16 +499,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -582,57 +511,57 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,8 +783,8 @@
   </sheetPr>
   <dimension ref="A1:G1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -909,7 +838,7 @@
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -928,15 +857,15 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>75</v>
+      <c r="A7" s="36" t="s">
+        <v>37</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -957,40 +886,40 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>63</v>
+      <c r="B10" s="33" t="s">
+        <v>47</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:7" s="30" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+    </row>
+    <row r="11" spans="1:7" s="22" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>61</v>
+      <c r="B12" s="34" t="s">
+        <v>45</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="37" t="s">
-        <v>62</v>
+      <c r="E12" s="34" t="s">
+        <v>46</v>
       </c>
-      <c r="F12" s="37"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
@@ -1003,44 +932,44 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>77</v>
+      <c r="B14" s="17" t="s">
+        <v>39</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="25" t="s">
-        <v>58</v>
+      <c r="C14" s="27"/>
+      <c r="D14" s="17" t="s">
+        <v>23</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>59</v>
+      <c r="E14" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
-        <v>60</v>
+      <c r="A15" s="17" t="s">
+        <v>25</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
-        <v>76</v>
+      <c r="A16" s="17" t="s">
+        <v>38</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1055,98 +984,98 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="23">
         <v>1</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="33" t="s">
-        <v>68</v>
+      <c r="D18" s="23"/>
+      <c r="E18" s="35" t="s">
+        <v>30</v>
       </c>
-      <c r="F18" s="33"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="31">
+      <c r="B19" s="23">
         <v>2</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>64</v>
+      <c r="C19" s="24" t="s">
+        <v>26</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="31">
+      <c r="B20" s="23">
         <v>3</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>65</v>
+      <c r="C20" s="24" t="s">
+        <v>27</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="34">
+      <c r="B21" s="25">
         <v>4</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>66</v>
+      <c r="C21" s="26" t="s">
+        <v>28</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="31">
+      <c r="B22" s="23">
         <v>5</v>
       </c>
-      <c r="C22" s="32" t="s">
-        <v>67</v>
+      <c r="C22" s="24" t="s">
+        <v>29</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="34">
+      <c r="B23" s="25">
         <v>6</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>69</v>
+      <c r="C23" s="26" t="s">
+        <v>31</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="31">
+      <c r="B24" s="23">
         <v>7</v>
       </c>
-      <c r="C24" s="32" t="s">
-        <v>70</v>
+      <c r="C24" s="24" t="s">
+        <v>32</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
@@ -1159,16 +1088,16 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="s">
-        <v>84</v>
+      <c r="A26" s="32" t="s">
+        <v>44</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>72</v>
+      <c r="B26" s="24" t="s">
+        <v>34</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
@@ -1181,83 +1110,83 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>78</v>
+      <c r="B28" s="24" t="s">
+        <v>40</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="32" t="s">
-        <v>73</v>
+      <c r="B30" s="24" t="s">
+        <v>35</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="35" t="s">
-        <v>74</v>
+      <c r="B31" s="26" t="s">
+        <v>36</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="35" t="s">
-        <v>71</v>
+      <c r="B33" s="26" t="s">
+        <v>33</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
     </row>
     <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
@@ -1269,8 +1198,8 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="s">
-        <v>81</v>
+      <c r="A36" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1280,8 +1209,8 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="45" t="s">
-        <v>82</v>
+      <c r="A37" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1291,8 +1220,8 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="45" t="s">
-        <v>83</v>
+      <c r="A38" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -9986,7 +9915,7 @@
       <c r="F1003" s="1"/>
       <c r="G1003" s="1"/>
     </row>
-    <row r="1004" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A1004" s="1"/>
       <c r="B1004" s="1"/>
       <c r="C1004" s="1"/>
@@ -10015,8 +9944,8 @@
   </sheetPr>
   <dimension ref="A1:V1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10059,7 +9988,7 @@
     </row>
     <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -10078,15 +10007,15 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:22" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="36" t="str">
+      <c r="B8" s="40"/>
+      <c r="C8" s="33" t="str">
         <f>'Opći opis projekta'!B10</f>
-        <v>Naslov teme</v>
+        <v>Music Streaming Service</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -10113,12 +10042,12 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -10202,7 +10131,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="1"/>
@@ -10225,16 +10154,16 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>21</v>
+      <c r="A14" s="42" t="s">
+        <v>20</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>22</v>
+      <c r="B14" s="41" t="s">
+        <v>49</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>23</v>
+      <c r="C14" s="43" t="s">
+        <v>50</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -10254,15 +10183,15 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>24</v>
+    <row r="15" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>20</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>25</v>
+      <c r="B15" s="41" t="s">
+        <v>51</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -10282,15 +10211,15 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>26</v>
+    <row r="16" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>20</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>27</v>
+      <c r="B16" s="41" t="s">
+        <v>52</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -10310,14 +10239,14 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>26</v>
+    <row r="17" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>20</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>28</v>
+      <c r="B17" s="41" t="s">
+        <v>62</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="7"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -10339,16 +10268,14 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>29</v>
+      <c r="A18" s="42" t="s">
+        <v>20</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>30</v>
+      <c r="B18" s="41" t="s">
+        <v>53</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -10369,16 +10296,14 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>32</v>
+      <c r="A19" s="42" t="s">
+        <v>20</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>33</v>
+      <c r="B19" s="41" t="s">
+        <v>54</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -10399,16 +10324,14 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>32</v>
+      <c r="A20" s="42" t="s">
+        <v>20</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>35</v>
+      <c r="B20" s="41" t="s">
+        <v>58</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -10429,16 +10352,14 @@
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>32</v>
+      <c r="A21" s="42" t="s">
+        <v>20</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>37</v>
+      <c r="B21" s="41" t="s">
+        <v>55</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -10459,15 +10380,13 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>32</v>
+      <c r="A22" s="42" t="s">
+        <v>20</v>
       </c>
-      <c r="B22" s="42" t="s">
-        <v>79</v>
+      <c r="B22" s="41" t="s">
+        <v>56</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -10488,15 +10407,15 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>40</v>
+    <row r="23" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="s">
+        <v>20</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>41</v>
+      <c r="B23" s="41" t="s">
+        <v>57</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -10516,11 +10435,15 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+    <row r="24" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -10540,11 +10463,15 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+    <row r="25" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -10564,11 +10491,15 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
     </row>
-    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+    <row r="26" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -10588,11 +10519,15 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+    <row r="27" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -10612,11 +10547,15 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+    <row r="28" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -10636,11 +10575,15 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+    <row r="29" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -10660,11 +10603,15 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+    <row r="30" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -10684,11 +10631,15 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+    <row r="31" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -10709,10 +10660,10 @@
       <c r="V31" s="1"/>
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -10733,10 +10684,10 @@
       <c r="V32" s="1"/>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -10757,10 +10708,10 @@
       <c r="V33" s="1"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -10781,10 +10732,10 @@
       <c r="V34" s="1"/>
     </row>
     <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -10805,10 +10756,10 @@
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -10829,10 +10780,10 @@
       <c r="V36" s="1"/>
     </row>
     <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -10853,10 +10804,10 @@
       <c r="V37" s="1"/>
     </row>
     <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -10877,10 +10828,10 @@
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -10901,10 +10852,10 @@
       <c r="V39" s="1"/>
     </row>
     <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -10925,10 +10876,10 @@
       <c r="V40" s="1"/>
     </row>
     <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -34043,6 +33994,7 @@
     <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -34054,7 +34006,7 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -34097,7 +34049,7 @@
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -34116,15 +34068,15 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="36" t="str">
+      <c r="B8" s="40"/>
+      <c r="C8" s="33" t="str">
         <f>'Opći opis projekta'!B10</f>
-        <v>Naslov teme</v>
+        <v>Music Streaming Service</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -34155,12 +34107,12 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="23" t="s">
-        <v>42</v>
+      <c r="A10" s="38" t="s">
+        <v>21</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -34249,15 +34201,9 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>45</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="7"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -34283,16 +34229,10 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="10"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -34317,12 +34257,10 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="10"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -34347,14 +34285,10 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -34379,10 +34313,10 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -34407,10 +34341,10 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -34435,16 +34369,10 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="10"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -34469,10 +34397,10 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -34497,10 +34425,10 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -34525,16 +34453,10 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="10"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -34559,10 +34481,10 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -34587,10 +34509,10 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -34615,10 +34537,10 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -34643,10 +34565,10 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -34671,10 +34593,10 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -34699,10 +34621,10 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -34727,10 +34649,10 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -34755,10 +34677,10 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -34783,10 +34705,10 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -34811,10 +34733,10 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>

--- a/Specifikacije projekta/02 SRS Tabela.xlsx
+++ b/Specifikacije projekta/02 SRS Tabela.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\priv\MusicStreamingService\Specifikacije projekta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\MusicStreamingService\Specifikacije projekta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3F0AA9-FA70-4DD6-B7A5-4AC174898729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E93A13D-A698-43B3-9953-01723A641024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opći opis projekta" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="120">
   <si>
     <t>Univerzitet u Zenici</t>
   </si>
@@ -289,6 +289,162 @@
   <si>
     <t>Zapraćivanje Izvođača</t>
   </si>
+  <si>
+    <t>Omogućava korisnicima da strimaju muziku sa platforme u realnom vremenu.</t>
+  </si>
+  <si>
+    <t>Omogućava korisnicima da pauziraju, preskoče, ponove i kontrolišu jačinu zvuka tokom slušanja muzike.</t>
+  </si>
+  <si>
+    <t>Omogućava korisnicima da preuzmu muziku i slušaju je bez internet konekcije.</t>
+  </si>
+  <si>
+    <t>Omogućava korisnicima da postave ili upravljaju svojim omiljenim pesmama i albumima.</t>
+  </si>
+  <si>
+    <t>Omogućava korisnicima da kreiraju, uređuju i brišu svoje playliste.</t>
+  </si>
+  <si>
+    <t>Omogućava korisnicima da pregledaju profile izvođača, biografije i njihovu muziku.</t>
+  </si>
+  <si>
+    <t>Omogućava korisnicima da dodaju, uređuju ili brišu albume na svom nalogu.</t>
+  </si>
+  <si>
+    <t>Omogućava korisnicima da pregledaju sve dostupne albume na platformi.</t>
+  </si>
+  <si>
+    <t>Omogućava korisnicima da pregledaju sve postojeće playliste, uključujući sopstvene i one drugih korisnika.</t>
+  </si>
+  <si>
+    <t>Omogućava korisnicima da kreiraju i postave svoju muziku na platformu.</t>
+  </si>
+  <si>
+    <t>Omogućava korisnicima da kreiraju personalizovane playliste sa pesmama po izboru.</t>
+  </si>
+  <si>
+    <t>Omogućava korisnicima da kreiraju albume sa pesmama koje su postavili na platformu.</t>
+  </si>
+  <si>
+    <t>Omogućava korisnicima da pretražuju muziku prema izvođaču, žanru, albumu, pesmi i drugim parametrima.</t>
+  </si>
+  <si>
+    <t>Omogućava korisnicima da lajkuju pesme koje im se sviđaju.</t>
+  </si>
+  <si>
+    <t>Omogućava korisnicima da prate izvođače kako bi pratili njihove nove pesme i albume.</t>
+  </si>
+  <si>
+    <t>Omogućava korisnicima da pregledaju sve pesme koje su lajkovali.</t>
+  </si>
+  <si>
+    <t>Omogućava korisnicima da pregledaju listu izvođača koje prate.</t>
+  </si>
+  <si>
+    <t>F.3.0.0.</t>
+  </si>
+  <si>
+    <t>F.3.1.0.</t>
+  </si>
+  <si>
+    <t>F.4.0.0.</t>
+  </si>
+  <si>
+    <t>F.3.2.0.</t>
+  </si>
+  <si>
+    <t>F.3.3.0.</t>
+  </si>
+  <si>
+    <t>F.5.0.0.</t>
+  </si>
+  <si>
+    <t>F.6.0.0.</t>
+  </si>
+  <si>
+    <t>F.7.0.0.</t>
+  </si>
+  <si>
+    <t>F.7.1.0.</t>
+  </si>
+  <si>
+    <t>F.6.1.0.</t>
+  </si>
+  <si>
+    <t>F.5.1.0.</t>
+  </si>
+  <si>
+    <t>F.5.2.0.</t>
+  </si>
+  <si>
+    <t>F.7.2.0.</t>
+  </si>
+  <si>
+    <t>F.8.0.0.</t>
+  </si>
+  <si>
+    <t>F.3.4.0.</t>
+  </si>
+  <si>
+    <t>F.5.3.0.</t>
+  </si>
+  <si>
+    <t>F.6.2.0.</t>
+  </si>
+  <si>
+    <t>F.9.0.0.</t>
+  </si>
+  <si>
+    <t>Notifikacije</t>
+  </si>
+  <si>
+    <t>Omogućava aplikaciji da šalje push notifikacije korisnicima čak i kada aplikacija nije aktivna.</t>
+  </si>
+  <si>
+    <t>NF.1.0</t>
+  </si>
+  <si>
+    <t>Dark Mode</t>
+  </si>
+  <si>
+    <t>Aplikacija mora koristiti samo tamni režim (dark mode), jer konkurentske aplikacije kao što su Spotify i Tidal koriste isključivo dark mode.</t>
+  </si>
+  <si>
+    <t>NF.2.0</t>
+  </si>
+  <si>
+    <t>Brzina učitavanja</t>
+  </si>
+  <si>
+    <t>Učitavanje muzike, albuma i izvođača mora biti gotovo brzo kako bi se osigurao fluidan korisnički doživljaj.</t>
+  </si>
+  <si>
+    <t>Dostupnost i brzina servisa</t>
+  </si>
+  <si>
+    <t>Aplikacija mora imati visoku dostupnost (99.9%) i mora biti dostupna korisnicima u realnom vremenu bez većih kašnjenja.</t>
+  </si>
+  <si>
+    <t>NF.3.0</t>
+  </si>
+  <si>
+    <t>Podrška za notifikacije u pozadini</t>
+  </si>
+  <si>
+    <t>Minimalni zahtjevi za uređaj</t>
+  </si>
+  <si>
+    <t>Aplikacija mora biti optimizovana za rad na uređajima sa minimalnim hardverskim specifikacijama (npr. 2 GB RAM-a, 16 GB interne memorije, Android 8 ili iOS 12+).</t>
+  </si>
+  <si>
+    <t>Aplikacija mora omogućiti slanje push notifikacija korisnicima čak i kada aplikacija nije aktivna, kako bi korisnici bili informisani o novim pesmama, albumima i izvođačima.</t>
+  </si>
+  <si>
+    <t>NF.4.0</t>
+  </si>
+  <si>
+    <t>NF.5.0</t>
+  </si>
 </sst>
 </file>
 
@@ -467,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -491,13 +647,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -531,6 +681,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -553,14 +713,11 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,7 +940,7 @@
   </sheetPr>
   <dimension ref="A1:G1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -794,7 +951,7 @@
     <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +962,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -816,7 +973,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -825,7 +982,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -836,7 +993,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -847,7 +1004,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -856,18 +1013,18 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -876,7 +1033,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -885,44 +1042,44 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="1:7" s="22" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="1:7" s="20" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -931,50 +1088,50 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -983,102 +1140,102 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="21">
         <v>1</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="35" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="35"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="23">
+      <c r="B19" s="21">
         <v>2</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="23">
+      <c r="B20" s="21">
         <v>3</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="25">
+      <c r="B21" s="23">
         <v>4</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="23">
+      <c r="B22" s="21">
         <v>5</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="25">
+      <c r="B23" s="23">
         <v>6</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="23">
+      <c r="B24" s="21">
         <v>7</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1087,20 +1244,20 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1109,86 +1266,86 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1197,8 +1354,8 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
+    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="1"/>
@@ -1208,8 +1365,8 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
+    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="28" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="1"/>
@@ -1219,8 +1376,8 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
+    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="28" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="1"/>
@@ -1230,7 +1387,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1239,7 +1396,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1248,7 +1405,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1257,7 +1414,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1266,7 +1423,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1275,7 +1432,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1284,7 +1441,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1293,7 +1450,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1302,7 +1459,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -9942,10 +10099,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V1003"/>
+  <dimension ref="A1:V1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9956,7 +10113,7 @@
     <col min="4" max="4" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9964,7 +10121,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9972,13 +10129,13 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -9986,7 +10143,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -9994,30 +10151,30 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="33" t="str">
+      <c r="B8" s="42"/>
+      <c r="C8" s="35" t="str">
         <f>'Opći opis projekta'!B10</f>
         <v>Music Streaming Service</v>
       </c>
-      <c r="D8" s="33"/>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -10041,13 +10198,13 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -10067,7 +10224,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -10091,7 +10248,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -10123,7 +10280,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
@@ -10153,14 +10310,14 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+    <row r="14" spans="1:22" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="34" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="9"/>
@@ -10184,13 +10341,15 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
-        <v>20</v>
+      <c r="A15" s="33" t="s">
+        <v>85</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -10212,13 +10371,15 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
-        <v>20</v>
+      <c r="A16" s="33" t="s">
+        <v>86</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -10239,15 +10400,17 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
-        <v>20</v>
+    <row r="17" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
+        <v>88</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>62</v>
+      <c r="B17" s="32" t="s">
+        <v>53</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="7"/>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -10267,14 +10430,16 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
-        <v>20</v>
+    <row r="18" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
+        <v>89</v>
       </c>
-      <c r="B18" s="41" t="s">
-        <v>53</v>
+      <c r="B18" s="32" t="s">
+        <v>63</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -10295,14 +10460,16 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
-        <v>20</v>
+    <row r="19" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
+        <v>99</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>54</v>
+      <c r="B19" s="32" t="s">
+        <v>64</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -10323,15 +10490,17 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
-        <v>20</v>
+    <row r="20" spans="1:22" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="33" t="s">
+        <v>87</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>58</v>
+      <c r="B20" s="32" t="s">
+        <v>62</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -10351,14 +10520,16 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
-        <v>20</v>
+    <row r="21" spans="1:22" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
+        <v>90</v>
       </c>
-      <c r="B21" s="41" t="s">
-        <v>55</v>
+      <c r="B21" s="32" t="s">
+        <v>54</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
       <c r="D21" s="9"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -10379,15 +10550,17 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
-        <v>20</v>
+    <row r="22" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33" t="s">
+        <v>95</v>
       </c>
-      <c r="B22" s="41" t="s">
-        <v>56</v>
+      <c r="B22" s="32" t="s">
+        <v>57</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="9"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -10407,14 +10580,16 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
-        <v>20</v>
+    <row r="23" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
+        <v>96</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>57</v>
+      <c r="B23" s="32" t="s">
+        <v>59</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
       <c r="D23" s="9"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -10435,14 +10610,16 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
-        <v>20</v>
+    <row r="24" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33" t="s">
+        <v>100</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>63</v>
+      <c r="B24" s="32" t="s">
+        <v>65</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="31" t="s">
+        <v>83</v>
+      </c>
       <c r="D24" s="9"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -10463,14 +10640,16 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
-        <v>20</v>
+    <row r="25" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
+        <v>91</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>59</v>
+      <c r="B25" s="32" t="s">
+        <v>58</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="43" t="s">
+        <v>73</v>
+      </c>
       <c r="D25" s="9"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -10491,14 +10670,16 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
     </row>
-    <row r="26" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
-        <v>20</v>
+    <row r="26" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33" t="s">
+        <v>94</v>
       </c>
-      <c r="B26" s="41" t="s">
-        <v>60</v>
+      <c r="B26" s="32" t="s">
+        <v>67</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="43" t="s">
+        <v>82</v>
+      </c>
       <c r="D26" s="9"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -10519,14 +10700,16 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
-        <v>20</v>
+    <row r="27" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
+        <v>101</v>
       </c>
-      <c r="B27" s="41" t="s">
-        <v>61</v>
+      <c r="B27" s="32" t="s">
+        <v>66</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
       <c r="D27" s="9"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -10547,14 +10730,16 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
-        <v>20</v>
+    <row r="28" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33" t="s">
+        <v>92</v>
       </c>
-      <c r="B28" s="41" t="s">
-        <v>64</v>
+      <c r="B28" s="32" t="s">
+        <v>55</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
       <c r="D28" s="9"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -10575,15 +10760,17 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
-        <v>20</v>
+    <row r="29" spans="1:22" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="33" t="s">
+        <v>93</v>
       </c>
-      <c r="B29" s="41" t="s">
-        <v>67</v>
+      <c r="B29" s="32" t="s">
+        <v>56</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="7"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -10603,14 +10790,16 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42" t="s">
-        <v>20</v>
+    <row r="30" spans="1:22" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33" t="s">
+        <v>97</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>65</v>
+      <c r="B30" s="32" t="s">
+        <v>60</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
       <c r="D30" s="9"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -10631,14 +10820,16 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
-        <v>20</v>
+    <row r="31" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
+        <v>98</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>66</v>
+      <c r="B31" s="32" t="s">
+        <v>61</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
       <c r="D31" s="9"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -10659,10 +10850,16 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="9"/>
+    <row r="32" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>104</v>
+      </c>
       <c r="D32" s="9"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -10684,8 +10881,8 @@
       <c r="V32" s="1"/>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="1"/>
@@ -10708,8 +10905,8 @@
       <c r="V33" s="1"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="1"/>
@@ -10731,9 +10928,9 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="11"/>
+    <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="1"/>
@@ -10755,9 +10952,9 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="11"/>
+    <row r="36" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="1"/>
@@ -10779,9 +10976,9 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+    <row r="37" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="1"/>
@@ -10803,7 +11000,7 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -10827,11 +11024,11 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+    <row r="39" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -10851,11 +11048,11 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
+    <row r="40" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -10875,11 +11072,11 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
+    <row r="41" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -10899,11 +11096,11 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+    <row r="42" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -10923,7 +11120,7 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -10947,7 +11144,7 @@
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -10971,7 +11168,7 @@
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -10995,7 +11192,7 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -11019,7 +11216,7 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -11043,7 +11240,7 @@
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
     </row>
-    <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -11067,7 +11264,7 @@
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
     </row>
-    <row r="49" spans="1:22" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -11091,7 +11288,7 @@
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
     </row>
-    <row r="50" spans="1:22" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -11115,7 +11312,7 @@
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
     </row>
-    <row r="51" spans="1:22" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -11139,7 +11336,7 @@
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
     </row>
-    <row r="52" spans="1:22" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -33987,6 +34184,30 @@
       <c r="U1003" s="1"/>
       <c r="V1003" s="1"/>
     </row>
+    <row r="1004" spans="1:22" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1004" s="1"/>
+      <c r="B1004" s="1"/>
+      <c r="C1004" s="1"/>
+      <c r="D1004" s="1"/>
+      <c r="E1004" s="1"/>
+      <c r="F1004" s="1"/>
+      <c r="G1004" s="1"/>
+      <c r="H1004" s="1"/>
+      <c r="I1004" s="1"/>
+      <c r="J1004" s="1"/>
+      <c r="K1004" s="1"/>
+      <c r="L1004" s="1"/>
+      <c r="M1004" s="1"/>
+      <c r="N1004" s="1"/>
+      <c r="O1004" s="1"/>
+      <c r="P1004" s="1"/>
+      <c r="Q1004" s="1"/>
+      <c r="R1004" s="1"/>
+      <c r="S1004" s="1"/>
+      <c r="T1004" s="1"/>
+      <c r="U1004" s="1"/>
+      <c r="V1004" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A10:D10"/>
@@ -34005,19 +34226,19 @@
   </sheetPr>
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="3" max="3" width="65.5703125" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="121.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -34025,7 +34246,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -34033,13 +34254,13 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -34047,7 +34268,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -34055,30 +34276,30 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="33" t="str">
+      <c r="B8" s="42"/>
+      <c r="C8" s="35" t="str">
         <f>'Opći opis projekta'!B10</f>
         <v>Music Streaming Service</v>
       </c>
-      <c r="D8" s="33"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -34106,13 +34327,13 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -34136,7 +34357,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -34164,7 +34385,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -34200,9 +34421,9 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
-      <c r="B13" s="16"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="9"/>
       <c r="D13" s="7"/>
       <c r="E13" s="1"/>
@@ -34228,11 +34449,16 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+    <row r="14" spans="1:26" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -34256,10 +34482,16 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="9"/>
+    <row r="15" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>110</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -34284,10 +34516,16 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="9"/>
+    <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.3">
+      <c r="A16" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>112</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -34312,10 +34550,16 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="9"/>
+    <row r="17" spans="1:26" ht="45" x14ac:dyDescent="0.3">
+      <c r="A17" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>117</v>
+      </c>
       <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -34340,10 +34584,16 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="9"/>
+    <row r="18" spans="1:26" ht="45" x14ac:dyDescent="0.3">
+      <c r="A18" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>116</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -34370,7 +34620,7 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
-      <c r="B19" s="14"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="1"/>
@@ -34396,9 +34646,9 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="1"/>
@@ -34424,9 +34674,9 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="1"/>
@@ -34452,9 +34702,9 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
-      <c r="B22" s="29"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="1"/>
@@ -34480,7 +34730,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -34508,7 +34758,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -34536,7 +34786,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -34564,7 +34814,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -34592,7 +34842,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -34620,7 +34870,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -34648,7 +34898,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -34676,11 +34926,11 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -34704,11 +34954,11 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -34732,11 +34982,11 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -34760,7 +35010,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -34788,7 +35038,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -34816,7 +35066,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -34844,7 +35094,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -34872,7 +35122,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -34900,7 +35150,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -34928,7 +35178,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -34956,7 +35206,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -34984,7 +35234,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -35012,7 +35262,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -35040,7 +35290,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -35068,7 +35318,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -35096,7 +35346,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -35124,7 +35374,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -35152,7 +35402,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -35180,7 +35430,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -35208,7 +35458,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -35236,7 +35486,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -61703,5 +61953,6 @@
     <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>